--- a/Tabela_geral_Actualizada2.xlsx
+++ b/Tabela_geral_Actualizada2.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Augchloropsis</t>
   </si>
   <si>
-    <t xml:space="preserve">Augchloropsis sp1</t>
+    <t xml:space="preserve">Augchloropsis_sp1</t>
   </si>
   <si>
     <t xml:space="preserve">voo</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">79.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Auglochloropsis bradiocephalis</t>
+    <t xml:space="preserve">Auglochloropsis_bradiocephalis</t>
   </si>
   <si>
     <t xml:space="preserve">AU_144.WAV</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">AU_146.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Auglochloropsis sp 2</t>
+    <t xml:space="preserve">Auglochloropsis_sp2</t>
   </si>
   <si>
     <t xml:space="preserve">AU_167.WAV</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">10.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Auglochloropsis sp1</t>
+    <t xml:space="preserve">Auglochloropsis_sp1</t>
   </si>
   <si>
     <t xml:space="preserve">voo </t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Bombus</t>
   </si>
   <si>
-    <t xml:space="preserve">Bombus atractus</t>
+    <t xml:space="preserve">Bombus_atractus</t>
   </si>
   <si>
     <t xml:space="preserve">AU_102.WAV</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">75.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Bombus morio</t>
+    <t xml:space="preserve">Bombus_morio</t>
   </si>
   <si>
     <t xml:space="preserve">A43.WAV</t>
@@ -175,19 +175,19 @@
     <t xml:space="preserve">Centris</t>
   </si>
   <si>
-    <t xml:space="preserve">Centris fuscata</t>
+    <t xml:space="preserve">Centris_fuscata</t>
   </si>
   <si>
     <t xml:space="preserve">A19.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Centris tarsata</t>
+    <t xml:space="preserve">Centris_tarsata</t>
   </si>
   <si>
     <t xml:space="preserve">A2_e_A8.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Centris trigonoides</t>
+    <t xml:space="preserve">Centris_trigonoides</t>
   </si>
   <si>
     <t xml:space="preserve">F40.WAV</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Eulaema</t>
   </si>
   <si>
-    <t xml:space="preserve">Eulaema nigrita</t>
+    <t xml:space="preserve">Eulaema_nigrita</t>
   </si>
   <si>
     <t xml:space="preserve">63.WAV</t>
@@ -208,13 +208,13 @@
     <t xml:space="preserve">Exomalopis</t>
   </si>
   <si>
-    <t xml:space="preserve">Exomalopis analis</t>
+    <t xml:space="preserve">Exomalopis_analis</t>
   </si>
   <si>
     <t xml:space="preserve">31.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Exomalopsis analis</t>
+    <t xml:space="preserve">Exomalopsis_analis</t>
   </si>
   <si>
     <t xml:space="preserve">67.WAV</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">54.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Exomalopsis minor</t>
+    <t xml:space="preserve">Exomalopsis_minor</t>
   </si>
   <si>
     <t xml:space="preserve">AU_151.WAV</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Melipona</t>
   </si>
   <si>
-    <t xml:space="preserve">Melipona bicolor</t>
+    <t xml:space="preserve">Melipona_bicolor</t>
   </si>
   <si>
     <t xml:space="preserve">60.WAV</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">53_62.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Melipona quadrifasciata</t>
+    <t xml:space="preserve">Melipona_quadrifasciata</t>
   </si>
   <si>
     <t xml:space="preserve">A12.WAV</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Pseudoalglochloropsi</t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudoalglochloropsis graminea</t>
+    <t xml:space="preserve">Pseudoalglochloropsis_graminea</t>
   </si>
   <si>
     <t xml:space="preserve">AU_152.WAV</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Xylocopa</t>
   </si>
   <si>
-    <t xml:space="preserve">Xylocopa nigrocincta</t>
+    <t xml:space="preserve">Xylocopa_nigrocincta</t>
   </si>
   <si>
     <t xml:space="preserve">AU_99.WAV</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">77.WAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Xylocopa suspecta</t>
+    <t xml:space="preserve">Xylocopa_suspecta</t>
   </si>
   <si>
     <t xml:space="preserve">F73.WAV</t>
@@ -529,16 +529,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L325"/>
+  <dimension ref="A1:L326"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A327" activeCellId="0" sqref="A327"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C327" activeCellId="0" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.43"/>
@@ -583,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -621,7 +621,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -659,7 +659,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -697,7 +697,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>22</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>22</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>24</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>24</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>24</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>25</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>28</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>28</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>28</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>28</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>4.9</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>39</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>39</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>43</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>43</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>44</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>44</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>44</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>44</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>44</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>45</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>45</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>45</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>45</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>46</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>46</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>47</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>47</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>47</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>48</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>48</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>48</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>51</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>51</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>51</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>51</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>51</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>51</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>51</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>51</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>53</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>53</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>53</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>53</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>53</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>53</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>53</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>53</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>55</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>55</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>55</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>56</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>4.4</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>56</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>4.4</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>56</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>4.4</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>56</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>4.4</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>59</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>59</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>59</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>59</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>59</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>59</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>59</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>59</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>62</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>62</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>62</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>62</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>62</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>62</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>62</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>62</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>62</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>64</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>64</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>64</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>64</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>64</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>64</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>65</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>65</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>65</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>65</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>66</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>66</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>66</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>66</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>66</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>66</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>66</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>66</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>67</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>67</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>67</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>67</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>67</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>67</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>67</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>67</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>67</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>67</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>68</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>68</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>68</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>68</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>68</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>68</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>69</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>69</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>69</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>69</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>69</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>69</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>69</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>69</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>69</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>70</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>70</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>70</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>70</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>70</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>70</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>70</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>71</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>71</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>71</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>71</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>71</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>71</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>72</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>72</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>72</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>72</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>72</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>72</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>72</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>74</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>74</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>74</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>74</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>74</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>75</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>75</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>75</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>75</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>75</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>75</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>76</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>76</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>76</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>76</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>76</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>77</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>77</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>80</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>80</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>81</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>81</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>81</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>81</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>82</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>82</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>82</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>82</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>83</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>83</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>83</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>83</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>83</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>83</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>83</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>83</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>83</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>83</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>84</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>84</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>84</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>84</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>84</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>84</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>84</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>84</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>85</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>85</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>85</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>85</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>85</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>85</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>85</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>85</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>85</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>85</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>86</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>86</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>86</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>86</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>86</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>86</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>86</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>87</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>87</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>87</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>89</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>89</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>89</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>89</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>90</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>90</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>90</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>90</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>91</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>91</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>91</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>91</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>91</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>91</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>92</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>92</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>92</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>92</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>92</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>92</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>92</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>92</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>92</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>92</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>92</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>92</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>92</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>92</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>95</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>95</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>95</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>95</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>95</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>95</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>95</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>95</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>96</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>96</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>97</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>97</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>97</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>97</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>100</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>100</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>100</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>100</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>100</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>100</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>100</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>100</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>100</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>100</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>100</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>100</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>102</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>102</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>102</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>102</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>104</v>
       </c>
@@ -12895,6 +12895,7 @@
         <v>6.1</v>
       </c>
     </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:J325"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Tabela_geral_Actualizada2.xlsx
+++ b/Tabela_geral_Actualizada2.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Bombus</t>
   </si>
   <si>
-    <t xml:space="preserve">Bombus_atractus</t>
+    <t xml:space="preserve">Bombus_pauloensis</t>
   </si>
   <si>
     <t xml:space="preserve">AU_102.WAV</t>
@@ -532,7 +532,7 @@
   <dimension ref="A1:L326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C327" activeCellId="0" sqref="C327"/>
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
